--- a/ECG Analyzer/ModelClasses.xlsx
+++ b/ECG Analyzer/ModelClasses.xlsx
@@ -4,16 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="pqrst" sheetId="1" r:id="rId1"/>
-    <sheet name="p" sheetId="2" r:id="rId2"/>
-    <sheet name="q" sheetId="3" r:id="rId3"/>
-    <sheet name="r" sheetId="4" r:id="rId4"/>
-    <sheet name="s" sheetId="5" r:id="rId5"/>
-    <sheet name="t" sheetId="6" r:id="rId6"/>
-    <sheet name="Patient" sheetId="7" r:id="rId7"/>
+    <sheet name="Patient" sheetId="7" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
   <si>
     <t>Id</t>
   </si>
@@ -33,21 +28,9 @@
     <t>int</t>
   </si>
   <si>
-    <t>Value</t>
-  </si>
-  <si>
     <t>PatientId</t>
   </si>
   <si>
-    <t>CycleNo</t>
-  </si>
-  <si>
-    <t>DayCount</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>DateTime</t>
   </si>
   <si>
@@ -66,9 +49,6 @@
     <t>pData</t>
   </si>
   <si>
-    <t>pqrstData</t>
-  </si>
-  <si>
     <t>Patient</t>
   </si>
   <si>
@@ -81,13 +61,22 @@
     <t>Age</t>
   </si>
   <si>
-    <t>pqrstDataId</t>
-  </si>
-  <si>
     <t>Gender</t>
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>pqrst</t>
+  </si>
+  <si>
+    <t>Cycle</t>
+  </si>
+  <si>
+    <t>TestDate</t>
+  </si>
+  <si>
+    <t>DoB</t>
   </si>
 </sst>
 </file>
@@ -414,21 +403,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1"/>
     </row>
@@ -442,7 +431,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -450,7 +439,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -458,7 +447,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -466,7 +455,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -474,7 +463,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -482,10 +471,26 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
         <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -500,238 +505,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -750,7 +531,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -758,7 +539,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -766,7 +547,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -774,169 +555,18 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
         <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
